--- a/DMSNewVSale_2025-10-30_10-02.xlsx
+++ b/DMSNewVSale_2025-10-30_10-02.xlsx
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>99.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERCAVA  SACHET</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>450.0000</t>
   </si>
   <si>
     <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
@@ -815,13 +824,13 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -848,7 +857,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -858,51 +867,84 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>27</v>
       </c>
-      <c t="s" r="Q10" s="12">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" ht="26.25" customHeight="1">
-      <c r="N11" s="13">
-        <v>236</v>
-      </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>12</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
         <v>30</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c t="s" r="Q11" s="12">
         <v>31</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+    </row>
+    <row r="12" ht="26.25" customHeight="1">
+      <c r="N12" s="13">
+        <v>686</v>
+      </c>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>32</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>33</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>34</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -931,10 +973,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
